--- a/i18n/input/i18n.xlsx
+++ b/i18n/input/i18n.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/qiuwenhui/Desktop/ai_coding/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/qiuwenhui/Desktop/ai_coding/cpt_front_end_settings_trae/i18n/input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95903250-3B9F-BB47-B8A7-90D4002BB173}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C73EEE71-8900-AD42-AE46-CCB0DC04B5F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2560" yWindow="1840" windowWidth="46080" windowHeight="24200" xr2:uid="{87FCAFE9-9ACA-2A40-AB13-90680D99A527}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
   <si>
     <t>Key</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -53,6 +53,34 @@
   </si>
   <si>
     <t>Last Update Date</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ts.channel.key1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>q00889988</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>键值中文内容1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>key congtent 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zh_CN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>en_US</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ts.channel.key2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -417,14 +445,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91205B01-5F3C-DB49-BECF-E23C4FE4D905}">
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="200" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
+    <col min="1" max="1" width="26.83203125" customWidth="1"/>
+    <col min="2" max="2" width="17.1640625" customWidth="1"/>
     <col min="5" max="5" width="28" customWidth="1"/>
   </cols>
   <sheetData>
@@ -445,8 +475,37 @@
         <v>4</v>
       </c>
     </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" t="s">
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>